--- a/example_output/csv_data/Resonance_Compare.xlsx
+++ b/example_output/csv_data/Resonance_Compare.xlsx
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.1116</v>
+        <v>3.299</v>
       </c>
       <c r="C2">
-        <v>6.5001</v>
+        <v>6.6536</v>
       </c>
       <c r="D2">
-        <v>159.961886418432</v>
+        <v>155.21038174364</v>
       </c>
       <c r="E2">
-        <v>3.871954048970119</v>
+        <v>3.930683045250641</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.1116</v>
+        <v>9.481299999999999</v>
       </c>
       <c r="C3">
-        <v>6.5001</v>
+        <v>11.435</v>
       </c>
       <c r="D3">
-        <v>159.961886418432</v>
+        <v>256.47615631891</v>
       </c>
       <c r="E3">
-        <v>609990000</v>
+        <v>677430000</v>
       </c>
     </row>
   </sheetData>
